--- a/Thesis-codes/file location log.xlsx
+++ b/Thesis-codes/file location log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F89E99-5F20-461D-AC9E-2FEFB5A639B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4BB6A9-C717-4158-BD10-541D109D049B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="2263" windowWidth="23246" windowHeight="13260" xr2:uid="{21555A24-428C-4C6D-B749-FD14892FA7DA}"/>
+    <workbookView xWindow="8289" yWindow="2391" windowWidth="22491" windowHeight="13252" xr2:uid="{21555A24-428C-4C6D-B749-FD14892FA7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="saved paths" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>NH3+pos</t>
   </si>
   <si>
-    <t>result-5-FINAL-0415</t>
-  </si>
-  <si>
     <t>1010_1016_exp3-FINAL</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Read model from final result</t>
+  </si>
+  <si>
+    <t>result-5-0415-0116-0122</t>
   </si>
 </sst>
 </file>
@@ -304,24 +304,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,6 +352,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,24 +365,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,7 +684,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -728,44 +728,44 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -774,9 +774,9 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="C4" s="22"/>
       <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
@@ -797,45 +797,45 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
+      <c r="A5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>24</v>
+      <c r="I6" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -843,9 +843,9 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="C7" s="22"/>
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
@@ -862,130 +862,130 @@
         <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="F11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
+      <c r="I11" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
